--- a/com/x.xlsx
+++ b/com/x.xlsx
@@ -446,411 +446,411 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>FA_score</t>
+          <t>min_max</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EMP9931</t>
+          <t>EMP9449</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4334668517112732</v>
+        <v>0.6535649299621582</v>
       </c>
       <c r="C2" t="n">
-        <v>65.56088258927942</v>
+        <v>0.5472042535167583</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>EMP9552</t>
+          <t>EMP9798</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5526674389839172</v>
+        <v>0.6272760629653931</v>
       </c>
       <c r="C3" t="n">
-        <v>67.2297590258089</v>
+        <v>0.5852560296085842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EMP9191</t>
+          <t>EMP9271</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5706948041915894</v>
+        <v>0.6060904860496521</v>
       </c>
       <c r="C4" t="n">
-        <v>79.82362499659642</v>
+        <v>0.7754521991310837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>EMP9022</t>
+          <t>EMP9931</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.59405517578125</v>
+        <v>0.4983294606208801</v>
       </c>
       <c r="C5" t="n">
-        <v>86.60481178326222</v>
+        <v>0.3396992280489479</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>EMP9379</t>
+          <t>EMP9213</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5729066133499146</v>
+        <v>0.5625823736190796</v>
       </c>
       <c r="C6" t="n">
-        <v>73.63708851654712</v>
+        <v>0.7991371522124211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>EMP9911</t>
+          <t>EMP9164</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5159764289855957</v>
+        <v>0.5844050645828247</v>
       </c>
       <c r="C7" t="n">
-        <v>78.39182977101105</v>
+        <v>0.651991202793585</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EMP9372</t>
+          <t>EMP9384</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5396072268486023</v>
+        <v>0.5765827298164368</v>
       </c>
       <c r="C8" t="n">
-        <v>77.41587790383369</v>
+        <v>0.8191280778453005</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EMP9778</t>
+          <t>EMP9561</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5761197209358215</v>
+        <v>0.6682236790657043</v>
       </c>
       <c r="C9" t="n">
-        <v>79.58182561441231</v>
+        <v>0.6561912366425811</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EMP9417</t>
+          <t>EMP9022</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5131931304931641</v>
+        <v>0.6927887201309204</v>
       </c>
       <c r="C10" t="n">
-        <v>77.49521596780936</v>
+        <v>0.7461376890185167</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>EMP9381</t>
+          <t>EMP9631</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5491517186164856</v>
+        <v>0.5637499094009399</v>
       </c>
       <c r="C11" t="n">
-        <v>71.5260667918669</v>
+        <v>0.8406529231879531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>EMP9091</t>
+          <t>EMP9405</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5773937702178955</v>
+        <v>0.6231964826583862</v>
       </c>
       <c r="C12" t="n">
-        <v>81.9275673318509</v>
+        <v>0.7835491321346424</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EMP9543</t>
+          <t>EMP9122</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5774613618850708</v>
+        <v>0.5909202098846436</v>
       </c>
       <c r="C13" t="n">
-        <v>55.19682416256101</v>
+        <v>0.6669946560924325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>EMP9522</t>
+          <t>EMP9778</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5250657200813293</v>
+        <v>0.5756207704544067</v>
       </c>
       <c r="C14" t="n">
-        <v>89.07456720909697</v>
+        <v>0.3642016932851213</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EMP9616</t>
+          <t>EMP9381</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5998446941375732</v>
+        <v>0.5281287431716919</v>
       </c>
       <c r="C15" t="n">
-        <v>91.06065212282724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>EMP9715</t>
+          <t>EMP9091</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4807120561599731</v>
+        <v>0.6667081713676453</v>
       </c>
       <c r="C16" t="n">
-        <v>80.1619185005141</v>
+        <v>0.9998333305389542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EMP9391</t>
+          <t>EMP9731</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.6041715145111084</v>
+        <v>0.6106390953063965</v>
       </c>
       <c r="C17" t="n">
-        <v>76.81976286131324</v>
+        <v>0.3429617975454892</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>EMP9442</t>
+          <t>EMP9759</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.6134519577026367</v>
+        <v>0.5628716945648193</v>
       </c>
       <c r="C18" t="n">
-        <v>75.4910271973713</v>
+        <v>0.3057559597113598</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>EMP9724</t>
+          <t>EMP9616</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4832581281661987</v>
+        <v>0.6505073308944702</v>
       </c>
       <c r="C19" t="n">
-        <v>80.20292616864852</v>
+        <v>0.9775483783382442</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>EMP9502</t>
+          <t>EMP9720</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5690912008285522</v>
+        <v>0.5621074438095093</v>
       </c>
       <c r="C20" t="n">
-        <v>92.03226991928328</v>
+        <v>0.6610758653023989</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>EMP9149</t>
+          <t>EMP9272</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5998329520225525</v>
+        <v>0.4696030020713806</v>
       </c>
       <c r="C21" t="n">
-        <v>75.41304827139881</v>
+        <v>0.537081507604787</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>EMP98810</t>
+          <t>EMP9599</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.529228687286377</v>
+        <v>0.588657021522522</v>
       </c>
       <c r="C22" t="n">
-        <v>71.53115931417342</v>
+        <v>0.6892165860837942</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>EMP9614</t>
+          <t>EMP9180</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5676168203353882</v>
+        <v>0.5364487171173096</v>
       </c>
       <c r="C23" t="n">
-        <v>74.8888300943414</v>
+        <v>0.7981212127924053</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>EMP9116</t>
+          <t>EMP9585</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.428191065788269</v>
+        <v>0.4801582098007202</v>
       </c>
       <c r="C24" t="n">
-        <v>69.6496883598024</v>
+        <v>0.6529439713726057</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>EMP9670</t>
+          <t>EMP9304</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.5750243663787842</v>
+        <v>0.6018693447113037</v>
       </c>
       <c r="C25" t="n">
-        <v>76.42485509462392</v>
+        <v>0.8581349098214059</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>EMP9249</t>
+          <t>EMP9701</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4755962789058685</v>
+        <v>0.4310147166252136</v>
       </c>
       <c r="C26" t="n">
-        <v>72.52330777033987</v>
+        <v>0.1070014761652892</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>EMP9799</t>
+          <t>EMP9541</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.5239489078521729</v>
+        <v>0.6551796793937683</v>
       </c>
       <c r="C27" t="n">
-        <v>80.63693416717202</v>
+        <v>0.4817571727845162</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EMP9092</t>
+          <t>EMP9902</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.5293045043945312</v>
+        <v>0.5768845081329346</v>
       </c>
       <c r="C28" t="n">
-        <v>87.05379054234074</v>
+        <v>0.4656365920297536</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>EMP9177</t>
+          <t>EMP9387</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.5352275371551514</v>
+        <v>0.5801680088043213</v>
       </c>
       <c r="C29" t="n">
-        <v>84.41426511327072</v>
+        <v>0.3091842808101133</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EMP9154</t>
+          <t>EMP9092</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.5614350438117981</v>
+        <v>0.6106394529342651</v>
       </c>
       <c r="C30" t="n">
-        <v>78.93772406981039</v>
+        <v>0.8550620166463663</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>EMP9270</t>
+          <t>EMP9635</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.5258554220199585</v>
+        <v>0.4934472143650055</v>
       </c>
       <c r="C31" t="n">
-        <v>90.24381508769135</v>
+        <v>0.4290327622244308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>EMP9606</t>
+          <t>EMP9154</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4739995002746582</v>
+        <v>0.6577417850494385</v>
       </c>
       <c r="C32" t="n">
-        <v>68.24759579182755</v>
+        <v>0.4540096191685543</v>
       </c>
     </row>
     <row r="33">
@@ -860,205 +860,205 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4762181341648102</v>
+        <v>0.5254615545272827</v>
       </c>
       <c r="C33" t="n">
-        <v>69.70183215156295</v>
+        <v>0.4208275144570504</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>EMP9695</t>
+          <t>EMP9874</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.5773701667785645</v>
+        <v>0.6847246289253235</v>
       </c>
       <c r="C34" t="n">
-        <v>78.69038523604912</v>
+        <v>0.5695881711152897</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>EMP9656</t>
+          <t>EMP9527</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.5222033262252808</v>
+        <v>0.6568142771720886</v>
       </c>
       <c r="C35" t="n">
-        <v>72.79383241949149</v>
+        <v>0.5622693011845337</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>EMP9115</t>
+          <t>EMP9125</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.5650448203086853</v>
+        <v>0.5938572883605957</v>
       </c>
       <c r="C36" t="n">
-        <v>69.42597585236526</v>
+        <v>0.8954823242030792</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EMP9866</t>
+          <t>EMP9681</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4702121019363403</v>
+        <v>0.6505584120750427</v>
       </c>
       <c r="C37" t="n">
-        <v>78.25356401989359</v>
+        <v>0.8120405249363913</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EMP9297</t>
+          <t>EMP9107</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.5359340906143188</v>
+        <v>0.6635817289352417</v>
       </c>
       <c r="C38" t="n">
-        <v>90.4906686199017</v>
+        <v>0.7044902741504826</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>EMP9294</t>
+          <t>EMP9935</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5953065752983093</v>
+        <v>0.5206177234649658</v>
       </c>
       <c r="C39" t="n">
-        <v>91.64423943904022</v>
+        <v>0.7659644045520193</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>EMP9422</t>
+          <t>EMP9864</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.5781537294387817</v>
+        <v>0.5657666921615601</v>
       </c>
       <c r="C40" t="n">
-        <v>76.3569845787583</v>
+        <v>0.5930377820608952</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EMP9568</t>
+          <t>EMP9668</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.4667771458625793</v>
+        <v>0.6589089632034302</v>
       </c>
       <c r="C41" t="n">
-        <v>62.09165025353558</v>
+        <v>0.8326025581108027</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>EMP9926</t>
+          <t>EMP9918</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.5529589653015137</v>
+        <v>0.5563656091690063</v>
       </c>
       <c r="C42" t="n">
-        <v>66.60105680712881</v>
+        <v>0.6023587213979817</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>EMP9775</t>
+          <t>EMP9305</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.5265727043151855</v>
+        <v>0.612079381942749</v>
       </c>
       <c r="C43" t="n">
-        <v>84.56117506486177</v>
+        <v>0.7385856792627525</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>EMP9524</t>
+          <t>EMP9775</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.5619205236434937</v>
+        <v>0.7129106521606445</v>
       </c>
       <c r="C44" t="n">
-        <v>84.77701017790021</v>
+        <v>0.4840086273363844</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>EMP9698</t>
+          <t>EMP9425</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.4666225016117096</v>
+        <v>0.4544562101364136</v>
       </c>
       <c r="C45" t="n">
-        <v>69.93267142559253</v>
+        <v>0.6905583257281351</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>EMP9746</t>
+          <t>EMP9428</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.4583472907543182</v>
+        <v>0.578733503818512</v>
       </c>
       <c r="C46" t="n">
-        <v>86.39944515668931</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>EMP9903</t>
+          <t>EMP9518</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.5908726453781128</v>
+        <v>0.6081154346466064</v>
       </c>
       <c r="C47" t="n">
-        <v>82.57122716502904</v>
+        <v>0.7039264554267965</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>EMP9086</t>
+          <t>EMP9700</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.5693528652191162</v>
+        <v>0.4981399476528168</v>
       </c>
       <c r="C48" t="n">
-        <v>60.30872012541845</v>
+        <v>0.0005019364718332753</v>
       </c>
     </row>
     <row r="49">
@@ -1068,10 +1068,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.6110262870788574</v>
+        <v>0.6396831870079041</v>
       </c>
       <c r="C49" t="n">
-        <v>79.52654237795925</v>
+        <v>0.8703278734230957</v>
       </c>
     </row>
   </sheetData>
